--- a/Solution_Design/Story Board/Storys/RA-37 Wo gibt es Was Dateninhalt/Wo gibt es was Dateninhalt.xlsx
+++ b/Solution_Design/Story Board/Storys/RA-37 Wo gibt es Was Dateninhalt/Wo gibt es was Dateninhalt.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nico\Dropbox (Privat)\HFTL\SE-GitHub\ApplicationDevelopment\Solution_Design\Story Board\Storys\RA-37 Wo gibt es Was Dateninhalt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8292"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Tabellenblatt1" sheetId="1" r:id="rId3"/>
+    <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="202">
   <si>
     <t>Produkt Kategorien</t>
   </si>
@@ -86,96 +94,991 @@
   </si>
   <si>
     <t>Einrichtungsgegenstände</t>
+  </si>
+  <si>
+    <t>Vorschlag</t>
+  </si>
+  <si>
+    <t>Erotik</t>
+  </si>
+  <si>
+    <t>Getränkemarkt</t>
+  </si>
+  <si>
+    <t>Fleischerei/Metzgerei</t>
+  </si>
+  <si>
+    <t>Bäckerei</t>
+  </si>
+  <si>
+    <t>Mall/Einkaufszentrum</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>OSM Bezeichnung</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>butcher</t>
+  </si>
+  <si>
+    <t>beverages</t>
+  </si>
+  <si>
+    <t>mall</t>
+  </si>
+  <si>
+    <r>
+      <t>Supermarkt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> supermarket</t>
+  </si>
+  <si>
+    <t>Babyfachmarkt</t>
+  </si>
+  <si>
+    <t>baby_goods</t>
+  </si>
+  <si>
+    <t>Bekleidungsgeschäft</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>fashion</t>
+  </si>
+  <si>
+    <t>Schuhgeschäft</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>Drogerie</t>
+  </si>
+  <si>
+    <t>chemist</t>
+  </si>
+  <si>
+    <t>erotic</t>
+  </si>
+  <si>
+    <t>Optiker</t>
+  </si>
+  <si>
+    <t>optician</t>
+  </si>
+  <si>
+    <t>medical_supply</t>
+  </si>
+  <si>
+    <r>
+      <t>Baumarkt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t>doityourself</t>
+  </si>
+  <si>
+    <t>garden_centre</t>
+  </si>
+  <si>
+    <t>Elektronikmarkt</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>mobile_phone</t>
+  </si>
+  <si>
+    <t>stationery</t>
+  </si>
+  <si>
+    <t>Handyshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Schreibwaren</t>
+  </si>
+  <si>
+    <t>Spielzeuggeschäft</t>
+  </si>
+  <si>
+    <t>toys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibliothek, Bücherei </t>
+  </si>
+  <si>
+    <t>library</t>
+  </si>
+  <si>
+    <t>Buchhandlung</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>Möbelhaus</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>erotik</t>
+  </si>
+  <si>
+    <t>Fetisch</t>
+  </si>
+  <si>
+    <t>Zubehör</t>
+  </si>
+  <si>
+    <t>Pornos</t>
+  </si>
+  <si>
+    <t>Kondome</t>
+  </si>
+  <si>
+    <t>Gleitgel</t>
+  </si>
+  <si>
+    <t>Handschellen</t>
+  </si>
+  <si>
+    <t>Beispiel</t>
+  </si>
+  <si>
+    <t>getränke</t>
+  </si>
+  <si>
+    <t>Softdrinks</t>
+  </si>
+  <si>
+    <t>Harddrinks</t>
+  </si>
+  <si>
+    <t>drinks</t>
+  </si>
+  <si>
+    <t>Säfte</t>
+  </si>
+  <si>
+    <t>div. Schnaps</t>
+  </si>
+  <si>
+    <t>sonstiges</t>
+  </si>
+  <si>
+    <t>Wasser</t>
+  </si>
+  <si>
+    <t>Milch</t>
+  </si>
+  <si>
+    <t>wein</t>
+  </si>
+  <si>
+    <t>bier</t>
+  </si>
+  <si>
+    <t>Smuthie</t>
+  </si>
+  <si>
+    <t>Fruchsäfte</t>
+  </si>
+  <si>
+    <t>Nektar</t>
+  </si>
+  <si>
+    <t>Wurst</t>
+  </si>
+  <si>
+    <t>Tierische fleisch produkte</t>
+  </si>
+  <si>
+    <t>Leber wurst</t>
+  </si>
+  <si>
+    <t>Steak</t>
+  </si>
+  <si>
+    <t>Blutwurst</t>
+  </si>
+  <si>
+    <t>Schnitzel</t>
+  </si>
+  <si>
+    <t>Backwaren</t>
+  </si>
+  <si>
+    <t>Brot</t>
+  </si>
+  <si>
+    <t>Kuchen</t>
+  </si>
+  <si>
+    <t>Torte</t>
+  </si>
+  <si>
+    <t>Kekse</t>
+  </si>
+  <si>
+    <t>schwarzwälderkirschtorte</t>
+  </si>
+  <si>
+    <t>vollkornbrot</t>
+  </si>
+  <si>
+    <t>Windeln</t>
+  </si>
+  <si>
+    <t>Schnuller</t>
+  </si>
+  <si>
+    <t>Kinderwagen</t>
+  </si>
+  <si>
+    <t>Nahrung</t>
+  </si>
+  <si>
+    <t>Tranportmittel</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Brei</t>
+  </si>
+  <si>
+    <t>Einwegartikel</t>
+  </si>
+  <si>
+    <t>Jacken</t>
+  </si>
+  <si>
+    <t>Hosen</t>
+  </si>
+  <si>
+    <t>Unterwäsche</t>
+  </si>
+  <si>
+    <t>Socken</t>
+  </si>
+  <si>
+    <t>Winter assesoires</t>
+  </si>
+  <si>
+    <t>Mütze</t>
+  </si>
+  <si>
+    <t>Lederschuhe</t>
+  </si>
+  <si>
+    <t>Turnschuhe</t>
+  </si>
+  <si>
+    <t>Halbschuhe</t>
+  </si>
+  <si>
+    <t>Sportschuhe</t>
+  </si>
+  <si>
+    <t>Sneakers</t>
+  </si>
+  <si>
+    <t>Winderstiefel</t>
+  </si>
+  <si>
+    <t>High Heels</t>
+  </si>
+  <si>
+    <t>Shampoo</t>
+  </si>
+  <si>
+    <t>Haarfarbe</t>
+  </si>
+  <si>
+    <t>Haarpflegeartikel</t>
+  </si>
+  <si>
+    <t>Bürste</t>
+  </si>
+  <si>
+    <t>Kamm</t>
+  </si>
+  <si>
+    <t>Supplements</t>
+  </si>
+  <si>
+    <t>Bierhefe</t>
+  </si>
+  <si>
+    <t>Vitamin kram</t>
+  </si>
+  <si>
+    <t>Bodylotion</t>
+  </si>
+  <si>
+    <t>Körperpflege</t>
+  </si>
+  <si>
+    <t>Seife</t>
+  </si>
+  <si>
+    <t>Deo</t>
+  </si>
+  <si>
+    <t>Brillen</t>
+  </si>
+  <si>
+    <t>Gestelle</t>
+  </si>
+  <si>
+    <t>Gläser</t>
+  </si>
+  <si>
+    <t>Kontaktlinsen</t>
+  </si>
+  <si>
+    <t>Baustoffe</t>
+  </si>
+  <si>
+    <t>Pflanzen</t>
+  </si>
+  <si>
+    <t>Geräte</t>
+  </si>
+  <si>
+    <t>Holz</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Glaswolle</t>
+  </si>
+  <si>
+    <t>Beton</t>
+  </si>
+  <si>
+    <t>Zement</t>
+  </si>
+  <si>
+    <t>Bohrmaschinen</t>
+  </si>
+  <si>
+    <t>Zollstock</t>
+  </si>
+  <si>
+    <t>Schraubenzieher</t>
+  </si>
+  <si>
+    <t>Zange</t>
+  </si>
+  <si>
+    <t>Heimwerker</t>
+  </si>
+  <si>
+    <t>Telefon</t>
+  </si>
+  <si>
+    <t>Haushaltsgeräte</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>Trocker</t>
+  </si>
+  <si>
+    <t>Kühlschrank</t>
+  </si>
+  <si>
+    <t>Kommunikationdjksa</t>
+  </si>
+  <si>
+    <t>Fernseher</t>
+  </si>
+  <si>
+    <t>Kopfhörer</t>
+  </si>
+  <si>
+    <t>Sdkarten</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>PC Spiele</t>
+  </si>
+  <si>
+    <t>Kabel</t>
+  </si>
+  <si>
+    <t>Handyhüllen</t>
+  </si>
+  <si>
+    <t>Handy Zubehör</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>Speichermedien</t>
+  </si>
+  <si>
+    <t>Tastuatr</t>
+  </si>
+  <si>
+    <t>Lampen</t>
+  </si>
+  <si>
+    <t>Bildschirme</t>
+  </si>
+  <si>
+    <t>Ventilator</t>
+  </si>
+  <si>
+    <t>Sim karten</t>
+  </si>
+  <si>
+    <t>Verträgen</t>
+  </si>
+  <si>
+    <t>Blöcke</t>
+  </si>
+  <si>
+    <t>Stifte</t>
+  </si>
+  <si>
+    <t>Tacker</t>
+  </si>
+  <si>
+    <t>Klebeband</t>
+  </si>
+  <si>
+    <t>Brettspielen</t>
+  </si>
+  <si>
+    <t>Plüschtiere</t>
+  </si>
+  <si>
+    <t>Fachliteratur</t>
+  </si>
+  <si>
+    <t>Zeitungen</t>
+  </si>
+  <si>
+    <t>Unterhaltungskram</t>
+  </si>
+  <si>
+    <t>Frauenzeitschriften</t>
+  </si>
+  <si>
+    <t>Männerzeitschriften</t>
+  </si>
+  <si>
+    <t>Kinderzeitschriften</t>
+  </si>
+  <si>
+    <t>Betten</t>
+  </si>
+  <si>
+    <t>Schränke</t>
+  </si>
+  <si>
+    <t>Küchen</t>
+  </si>
+  <si>
+    <t>Tische</t>
+  </si>
+  <si>
+    <t>Regale</t>
+  </si>
+  <si>
+    <t>Stühle</t>
+  </si>
+  <si>
+    <t>Möbel</t>
+  </si>
+  <si>
+    <t>Sanitär</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Dusche</t>
+  </si>
+  <si>
+    <t>Hängende</t>
+  </si>
+  <si>
+    <t>Stehende</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.86"/>
-    <col customWidth="1" min="2" max="2" width="21.14"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -183,7 +1086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -191,113 +1094,977 @@
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="H4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
-    </row>
-    <row r="14">
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="I13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="D14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="I14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="J15" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="D16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="I16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="J17" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="D18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="J18" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="D19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="I19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="D20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="J20" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="D22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="J22" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="I23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="J24" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="I26" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+      <c r="I27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+      <c r="I28" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+      <c r="H39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J49" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J58" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H60" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J61" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I62" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H63" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J65" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J66" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J67" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J68" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J69" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J70" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J71" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J72" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J73" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I77" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="84" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="88" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="91" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H91" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I92" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I93" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I94" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I95" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I96" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I97" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I98" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J101" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I102" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="103" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I103" s="6"/>
+      <c r="J103" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="104" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J104" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H106" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I107" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I108" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J108" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I109" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="J109" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="111" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="8:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H112" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="113" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J113" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="114" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J114" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J115" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J116" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="117" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J117" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I118" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J119" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I120" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="9:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J121" s="6" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D4"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2" tooltip="DE:Tag:shop=beverages" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dbeverages"/>
+    <hyperlink ref="E14" r:id="rId3" tooltip="DE:Tag:shop=baby goods" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dbaby_goods"/>
+    <hyperlink ref="E15" r:id="rId4" tooltip="DE:Tag:shop=clothes" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dclothes"/>
+    <hyperlink ref="F15" r:id="rId5" tooltip="DE:Tag:shop=fashion" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dfashion"/>
+    <hyperlink ref="E16" r:id="rId6" tooltip="DE:Tag:shop=shoes" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dshoes"/>
+    <hyperlink ref="E17" r:id="rId7" tooltip="DE:Tag:shop=chemist" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dchemist"/>
+    <hyperlink ref="E8" r:id="rId8" tooltip="DE:Tag:shop=erotic" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Derotic"/>
+    <hyperlink ref="E18" r:id="rId9" tooltip="DE:Tag:shop=optician" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Doptician"/>
+    <hyperlink ref="F17" r:id="rId10" tooltip="DE:Tag:shop=medical supply" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dmedical_supply"/>
+    <hyperlink ref="E19" r:id="rId11" tooltip="DE:Tag:shop=doityourself" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Ddoityourself"/>
+    <hyperlink ref="F19" r:id="rId12" tooltip="DE:Tag:shop=garden centre" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dgarden_centre"/>
+    <hyperlink ref="E20" r:id="rId13" tooltip="DE:Tag:shop=electronics" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Delectronics"/>
+    <hyperlink ref="F20" r:id="rId14" tooltip="DE:Tag:shop=computer" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dcomputer"/>
+    <hyperlink ref="E21" r:id="rId15" tooltip="DE:Tag:shop=mobile phone" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dmobile_phone"/>
+    <hyperlink ref="E22" r:id="rId16" tooltip="DE:Tag:shop=stationery" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dstationery"/>
+    <hyperlink ref="E23" r:id="rId17" tooltip="Tag:shop=toys" display="https://wiki.openstreetmap.org/wiki/Tag:shop%3Dtoys"/>
+    <hyperlink ref="E24" r:id="rId18" tooltip="DE:Tag:amenity=library" display="https://wiki.openstreetmap.org/wiki/DE:Tag:amenity%3Dlibrary"/>
+    <hyperlink ref="E25" r:id="rId19" tooltip="DE:Tag:shop=books" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dbooks"/>
+    <hyperlink ref="E26" r:id="rId20" tooltip="DE:Tag:shop=furniture" display="https://wiki.openstreetmap.org/wiki/DE:Tag:shop%3Dfurniture"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>